--- a/level-1/uri/phase-1-3/uri-phase-1-3.xlsx
+++ b/level-1/uri/phase-1-3/uri-phase-1-3.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311B372B-542E-464D-999E-A7BF6541CE8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB2185A-BEC1-45A6-AA68-E0AAC82A265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 1-3" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 1.3" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="190">
   <si>
     <t>Problem Link</t>
   </si>
@@ -176,15 +189,6 @@
     <t>https://www.beecrowd.com.br/judge/en/problems/view/2982</t>
   </si>
   <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/2949</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/1041</t>
-  </si>
-  <si>
-    <t>https://www.beecrowd.com.br/judge/en/problems/view/3181</t>
-  </si>
-  <si>
     <t>Ad-Hoc</t>
   </si>
   <si>
@@ -588,6 +592,12 @@
   </si>
   <si>
     <t>https://www.beecrowd.com.br/judge/en/problems/view/3090</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1011</t>
+  </si>
+  <si>
+    <t>https://www.beecrowd.com.br/judge/en/problems/view/1182</t>
   </si>
 </sst>
 </file>
@@ -801,6 +811,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,183 +854,12 @@
     <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1338,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J218"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1358,90 +1213,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="5" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C214)</f>
+        <f>AVERAGE(C4:C213)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D213)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E213)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F213)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="5" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G213)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="5">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H213)</f>
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <f>COUNTA(I4:I864)</f>
+        <f>COUNTA(I4:I863)</f>
         <v>0</v>
       </c>
       <c r="J3" s="4">
-        <f>COUNTA(J4:J984)</f>
-        <v>175</v>
+        <f>COUNTA(J4:J983)</f>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="13">
         <v>2</v>
       </c>
       <c r="C4" s="6"/>
@@ -1454,15 +1309,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="11"/>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
       <c r="C5" s="6"/>
@@ -1474,15 +1329,15 @@
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="13">
         <v>2</v>
       </c>
       <c r="C6" s="6"/>
@@ -1495,15 +1350,15 @@
         <v>0</v>
       </c>
       <c r="I6" s="11"/>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
       <c r="C7" s="6"/>
@@ -1516,15 +1371,15 @@
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
       <c r="C8" s="6"/>
@@ -1533,19 +1388,19 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="10">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="11"/>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
@@ -1554,19 +1409,19 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="11"/>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
       <c r="C10" s="6"/>
@@ -1575,19 +1430,19 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
       <c r="C11" s="6"/>
@@ -1596,19 +1451,19 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="14">
         <v>2</v>
       </c>
       <c r="C12" s="6"/>
@@ -1617,19 +1472,19 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="13">
         <v>2</v>
       </c>
       <c r="C13" s="6"/>
@@ -1638,19 +1493,19 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="14">
         <v>2</v>
       </c>
       <c r="C14" s="6"/>
@@ -1659,19 +1514,19 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="11"/>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="13">
         <v>2</v>
       </c>
       <c r="C15" s="6"/>
@@ -1680,19 +1535,19 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="13">
         <v>2</v>
       </c>
       <c r="C16" s="6"/>
@@ -1701,19 +1556,19 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="13">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
@@ -1722,19 +1577,19 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="11"/>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="13">
         <v>2</v>
       </c>
       <c r="C18" s="6"/>
@@ -1743,19 +1598,19 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="14">
         <v>2</v>
       </c>
       <c r="C19" s="6"/>
@@ -1764,19 +1619,19 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C19:G19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="13">
         <v>2</v>
       </c>
       <c r="C20" s="6"/>
@@ -1785,19 +1640,19 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C20:G20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="13">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
@@ -1806,19 +1661,19 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="13">
         <v>2</v>
       </c>
       <c r="C22" s="6"/>
@@ -1827,19 +1682,19 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C22:G22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="13">
         <v>2</v>
       </c>
       <c r="C23" s="6"/>
@@ -1848,19 +1703,19 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="14">
         <v>2</v>
       </c>
       <c r="C24" s="6"/>
@@ -1869,19 +1724,19 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="13">
         <v>2</v>
       </c>
       <c r="C25" s="6"/>
@@ -1890,19 +1745,19 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="14">
         <v>2</v>
       </c>
       <c r="C26" s="6"/>
@@ -1911,19 +1766,19 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="13">
         <v>2</v>
       </c>
       <c r="C27" s="6"/>
@@ -1932,19 +1787,19 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="13">
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
@@ -1953,19 +1808,19 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="14">
         <v>2</v>
       </c>
       <c r="C29" s="6"/>
@@ -1974,19 +1829,19 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="13">
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
@@ -1995,19 +1850,19 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="13">
         <v>2</v>
       </c>
       <c r="C31" s="6"/>
@@ -2016,19 +1871,19 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="11"/>
-      <c r="J31" s="24" t="s">
+      <c r="J31" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="13">
         <v>2</v>
       </c>
       <c r="C32" s="6"/>
@@ -2037,19 +1892,19 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="13">
         <v>2</v>
       </c>
       <c r="C33" s="6"/>
@@ -2058,19 +1913,19 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C33:G33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="14">
         <v>2</v>
       </c>
       <c r="C34" s="6"/>
@@ -2079,19 +1934,19 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
-      <c r="J34" s="24" t="s">
+      <c r="J34" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="13">
         <v>2</v>
       </c>
       <c r="C35" s="6"/>
@@ -2100,19 +1955,19 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C35:G35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="11"/>
-      <c r="J35" s="24" t="s">
+      <c r="J35" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="14">
         <v>2</v>
       </c>
       <c r="C36" s="6"/>
@@ -2121,19 +1976,19 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
-      <c r="J36" s="24" t="s">
+      <c r="J36" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="13">
         <v>2</v>
       </c>
       <c r="C37" s="6"/>
@@ -2142,19 +1997,19 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="24" t="s">
+      <c r="J37" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="13">
         <v>2</v>
       </c>
       <c r="C38" s="6"/>
@@ -2163,19 +2018,19 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="11"/>
-      <c r="J38" s="24" t="s">
+      <c r="J38" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="13">
         <v>2</v>
       </c>
       <c r="C39" s="6"/>
@@ -2184,19 +2039,19 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="11"/>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="13">
         <v>2</v>
       </c>
       <c r="C40" s="6"/>
@@ -2205,19 +2060,19 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="14">
         <v>2</v>
       </c>
       <c r="C41" s="6"/>
@@ -2226,19 +2081,19 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="24" t="s">
+      <c r="J41" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="13">
         <v>2</v>
       </c>
       <c r="C42" s="6"/>
@@ -2247,19 +2102,19 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C42:G42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="11"/>
-      <c r="J42" s="24" t="s">
+      <c r="J42" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="13">
         <v>2</v>
       </c>
       <c r="C43" s="6"/>
@@ -2268,19 +2123,19 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C43:G43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="13">
         <v>2</v>
       </c>
       <c r="C44" s="6"/>
@@ -2289,20 +2144,20 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="11"/>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="22">
-        <v>3</v>
+      <c r="B45" s="14">
+        <v>2</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2310,20 +2165,20 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C45:G45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
-      <c r="J45" s="24" t="s">
-        <v>52</v>
+      <c r="J45" s="15" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="23">
-        <v>3</v>
+      <c r="B46" s="13">
+        <v>2</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2331,19 +2186,19 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C46:G46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="11"/>
-      <c r="J46" s="24" t="s">
-        <v>53</v>
+      <c r="J46" s="15" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="13">
         <v>3</v>
       </c>
       <c r="C47" s="6"/>
@@ -2352,20 +2207,20 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C47:G47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="11"/>
-      <c r="J47" s="24" t="s">
-        <v>54</v>
+      <c r="J47" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="22">
-        <v>3</v>
+      <c r="A48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="13">
+        <v>4</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -2373,19 +2228,19 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C48:G48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="11"/>
-      <c r="J48" s="24" t="s">
-        <v>55</v>
+      <c r="J48" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="22">
+      <c r="A49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="13">
         <v>4</v>
       </c>
       <c r="C49" s="6"/>
@@ -2394,19 +2249,19 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="11"/>
-      <c r="J49" s="25" t="s">
-        <v>57</v>
+      <c r="J49" s="16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="22">
+      <c r="A50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="13">
         <v>4</v>
       </c>
       <c r="C50" s="6"/>
@@ -2415,19 +2270,19 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C50:G50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="11"/>
-      <c r="J50" s="25" t="s">
-        <v>58</v>
+      <c r="J50" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="22">
+      <c r="A51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="13">
         <v>4</v>
       </c>
       <c r="C51" s="6"/>
@@ -2436,19 +2291,19 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="11"/>
-      <c r="J51" s="25" t="s">
-        <v>59</v>
+      <c r="J51" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="22">
+      <c r="A52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="13">
         <v>4</v>
       </c>
       <c r="C52" s="6"/>
@@ -2457,19 +2312,19 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="11"/>
-      <c r="J52" s="25" t="s">
-        <v>60</v>
+      <c r="J52" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="22">
+      <c r="A53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="13">
         <v>4</v>
       </c>
       <c r="C53" s="6"/>
@@ -2478,19 +2333,19 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="25" t="s">
-        <v>61</v>
+      <c r="J53" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="22">
+      <c r="A54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="13">
         <v>4</v>
       </c>
       <c r="C54" s="6"/>
@@ -2499,19 +2354,19 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="11"/>
-      <c r="J54" s="25" t="s">
-        <v>62</v>
+      <c r="J54" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="22">
+      <c r="A55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="13">
         <v>4</v>
       </c>
       <c r="C55" s="6"/>
@@ -2520,19 +2375,19 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="11"/>
-      <c r="J55" s="25" t="s">
-        <v>63</v>
+      <c r="J55" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" s="22">
+      <c r="A56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="13">
         <v>4</v>
       </c>
       <c r="C56" s="6"/>
@@ -2541,19 +2396,19 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="11"/>
-      <c r="J56" s="25" t="s">
-        <v>64</v>
+      <c r="J56" s="16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" s="22">
+      <c r="A57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="13">
         <v>4</v>
       </c>
       <c r="C57" s="6"/>
@@ -2562,19 +2417,19 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="11"/>
-      <c r="J57" s="25" t="s">
-        <v>65</v>
+      <c r="J57" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="22">
+      <c r="A58" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="13">
         <v>4</v>
       </c>
       <c r="C58" s="6"/>
@@ -2583,19 +2438,19 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="11"/>
-      <c r="J58" s="25" t="s">
-        <v>66</v>
+      <c r="J58" s="16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="22">
+      <c r="A59" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="13">
         <v>4</v>
       </c>
       <c r="C59" s="6"/>
@@ -2604,19 +2459,19 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="11"/>
-      <c r="J59" s="25" t="s">
-        <v>67</v>
+      <c r="J59" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="22">
+      <c r="A60" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="13">
         <v>4</v>
       </c>
       <c r="C60" s="6"/>
@@ -2625,19 +2480,19 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="11"/>
-      <c r="J60" s="25" t="s">
-        <v>68</v>
+      <c r="J60" s="16" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="22">
+      <c r="A61" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="13">
         <v>4</v>
       </c>
       <c r="C61" s="6"/>
@@ -2646,19 +2501,19 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="11"/>
-      <c r="J61" s="25" t="s">
-        <v>69</v>
+      <c r="J61" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B62" s="22">
+      <c r="A62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="13">
         <v>4</v>
       </c>
       <c r="C62" s="6"/>
@@ -2667,19 +2522,19 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C62:G62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="25" t="s">
-        <v>70</v>
+      <c r="J62" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="22">
+      <c r="A63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="13">
         <v>4</v>
       </c>
       <c r="C63" s="6"/>
@@ -2688,20 +2543,20 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="25" t="s">
-        <v>71</v>
+      <c r="J63" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="22">
-        <v>4</v>
+      <c r="A64" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="13">
+        <v>5</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -2709,19 +2564,19 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="25" t="s">
-        <v>72</v>
+      <c r="J64" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="22">
+      <c r="A65" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="13">
         <v>5</v>
       </c>
       <c r="C65" s="6"/>
@@ -2730,19 +2585,19 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="11"/>
-      <c r="J65" s="25" t="s">
-        <v>73</v>
+      <c r="J65" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B66" s="22">
+      <c r="A66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="13">
         <v>5</v>
       </c>
       <c r="C66" s="6"/>
@@ -2751,19 +2606,19 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="11"/>
-      <c r="J66" s="25" t="s">
-        <v>74</v>
+      <c r="J66" s="16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="22">
+      <c r="A67" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="13">
         <v>5</v>
       </c>
       <c r="C67" s="6"/>
@@ -2772,19 +2627,19 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="11"/>
-      <c r="J67" s="25" t="s">
-        <v>75</v>
+      <c r="J67" s="16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="22">
+      <c r="A68" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="13">
         <v>5</v>
       </c>
       <c r="C68" s="6"/>
@@ -2793,19 +2648,19 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="11"/>
-      <c r="J68" s="25" t="s">
-        <v>76</v>
+      <c r="J68" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B69" s="22">
+      <c r="A69" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="13">
         <v>5</v>
       </c>
       <c r="C69" s="6"/>
@@ -2814,19 +2669,19 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="11"/>
-      <c r="J69" s="25" t="s">
-        <v>77</v>
+      <c r="J69" s="16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="22">
+      <c r="A70" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="13">
         <v>5</v>
       </c>
       <c r="C70" s="6"/>
@@ -2835,19 +2690,19 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="11"/>
-      <c r="J70" s="25" t="s">
-        <v>78</v>
+      <c r="J70" s="16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="22">
+      <c r="A71" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="13">
         <v>5</v>
       </c>
       <c r="C71" s="6"/>
@@ -2856,19 +2711,19 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H71:H164" si="0">SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="11"/>
-      <c r="J71" s="25" t="s">
-        <v>79</v>
+      <c r="J71" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B72" s="22">
+      <c r="A72" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="13">
         <v>5</v>
       </c>
       <c r="C72" s="6"/>
@@ -2877,19 +2732,19 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="10">
-        <f t="shared" ref="H72:H165" si="2">SUM(C72:G72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I72" s="11"/>
-      <c r="J72" s="25" t="s">
-        <v>80</v>
+      <c r="J72" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" s="22">
+      <c r="A73" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="13">
         <v>5</v>
       </c>
       <c r="C73" s="6"/>
@@ -2898,19 +2753,18 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="11"/>
-      <c r="J73" s="25" t="s">
-        <v>81</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B74" s="22">
+      <c r="A74" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" s="13">
         <v>5</v>
       </c>
       <c r="C74" s="6"/>
@@ -2919,18 +2773,18 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="22">
+      <c r="A75" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" s="13">
         <v>5</v>
       </c>
       <c r="C75" s="6"/>
@@ -2939,18 +2793,18 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="22">
+      <c r="A76" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="13">
         <v>5</v>
       </c>
       <c r="C76" s="6"/>
@@ -2959,18 +2813,18 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>84</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B77" s="22">
+      <c r="A77" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="13">
         <v>5</v>
       </c>
       <c r="C77" s="6"/>
@@ -2979,18 +2833,18 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="25" t="s">
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="22">
+      <c r="A78" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="13">
         <v>5</v>
       </c>
       <c r="C78" s="6"/>
@@ -2999,18 +2853,18 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>86</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B79" s="22">
+      <c r="A79" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" s="13">
         <v>5</v>
       </c>
       <c r="C79" s="6"/>
@@ -3019,18 +2873,18 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>87</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B80" s="22">
+      <c r="A80" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="13">
         <v>5</v>
       </c>
       <c r="C80" s="6"/>
@@ -3039,18 +2893,18 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>88</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="22">
+      <c r="A81" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="13">
         <v>5</v>
       </c>
       <c r="C81" s="6"/>
@@ -3059,18 +2913,18 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>89</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="22">
+      <c r="A82" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B82" s="13">
         <v>5</v>
       </c>
       <c r="C82" s="6"/>
@@ -3079,18 +2933,18 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="22">
+      <c r="A83" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="13">
         <v>5</v>
       </c>
       <c r="C83" s="6"/>
@@ -3099,18 +2953,18 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>91</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B84" s="22">
+      <c r="A84" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B84" s="13">
         <v>5</v>
       </c>
       <c r="C84" s="6"/>
@@ -3119,18 +2973,18 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>92</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="22">
+      <c r="A85" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="13">
         <v>5</v>
       </c>
       <c r="C85" s="6"/>
@@ -3139,18 +2993,18 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="22">
+      <c r="A86" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" s="13">
         <v>5</v>
       </c>
       <c r="C86" s="6"/>
@@ -3159,18 +3013,18 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>94</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="22">
+      <c r="A87" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="13">
         <v>5</v>
       </c>
       <c r="C87" s="6"/>
@@ -3179,18 +3033,18 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" s="22">
+      <c r="A88" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="13">
         <v>5</v>
       </c>
       <c r="C88" s="6"/>
@@ -3199,18 +3053,18 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="25" t="s">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" s="22">
+      <c r="A89" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B89" s="13">
         <v>5</v>
       </c>
       <c r="C89" s="6"/>
@@ -3219,18 +3073,18 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="25" t="s">
-        <v>97</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" s="22">
+      <c r="A90" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90" s="13">
         <v>5</v>
       </c>
       <c r="C90" s="6"/>
@@ -3239,18 +3093,18 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="25" t="s">
-        <v>98</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="22">
+      <c r="A91" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="13">
         <v>5</v>
       </c>
       <c r="C91" s="6"/>
@@ -3259,18 +3113,18 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="25" t="s">
-        <v>99</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="22">
+      <c r="A92" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" s="13">
         <v>5</v>
       </c>
       <c r="C92" s="6"/>
@@ -3279,19 +3133,19 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" s="22">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="13">
+        <v>6</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -3299,18 +3153,19 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="11"/>
+      <c r="J93" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94" s="13">
         <v>6</v>
       </c>
       <c r="C94" s="6"/>
@@ -3319,19 +3174,19 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I94" s="11"/>
-      <c r="J94" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" s="22">
+      <c r="J94" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="13">
         <v>6</v>
       </c>
       <c r="C95" s="6"/>
@@ -3340,19 +3195,19 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I95" s="11"/>
-      <c r="J95" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="22">
+      <c r="J95" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B96" s="13">
         <v>6</v>
       </c>
       <c r="C96" s="6"/>
@@ -3361,19 +3216,19 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I96" s="11"/>
-      <c r="J96" s="25" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" s="22">
+      <c r="J96" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="13">
         <v>6</v>
       </c>
       <c r="C97" s="6"/>
@@ -3382,19 +3237,19 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I97" s="11"/>
-      <c r="J97" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" s="22">
+      <c r="J97" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98" s="13">
         <v>6</v>
       </c>
       <c r="C98" s="6"/>
@@ -3403,19 +3258,19 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I98" s="11"/>
-      <c r="J98" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" s="22">
+      <c r="J98" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="13">
         <v>6</v>
       </c>
       <c r="C99" s="6"/>
@@ -3424,19 +3279,19 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I99" s="11"/>
-      <c r="J99" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" s="22">
+      <c r="J99" s="16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="13">
         <v>6</v>
       </c>
       <c r="C100" s="6"/>
@@ -3445,19 +3300,19 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I100" s="11"/>
-      <c r="J100" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" s="22">
+      <c r="J100" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="13">
         <v>6</v>
       </c>
       <c r="C101" s="6"/>
@@ -3466,19 +3321,19 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I101" s="11"/>
-      <c r="J101" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B102" s="22">
+      <c r="J101" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="13">
         <v>6</v>
       </c>
       <c r="C102" s="6"/>
@@ -3487,19 +3342,19 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I102" s="11"/>
-      <c r="J102" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B103" s="22">
+      <c r="J102" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="13">
         <v>6</v>
       </c>
       <c r="C103" s="6"/>
@@ -3508,19 +3363,19 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I103" s="11"/>
-      <c r="J103" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" s="22">
+      <c r="J103" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="13">
         <v>6</v>
       </c>
       <c r="C104" s="6"/>
@@ -3529,19 +3384,19 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I104" s="11"/>
-      <c r="J104" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="22">
+      <c r="J104" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="13">
         <v>6</v>
       </c>
       <c r="C105" s="6"/>
@@ -3550,19 +3405,19 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H105:H126" si="1">SUM(C105:G105)</f>
         <v>0</v>
       </c>
       <c r="I105" s="11"/>
-      <c r="J105" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" s="22">
+      <c r="J105" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="13">
         <v>6</v>
       </c>
       <c r="C106" s="6"/>
@@ -3571,19 +3426,19 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="10">
-        <f t="shared" ref="H106:H127" si="3">SUM(C106:G106)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I106" s="11"/>
-      <c r="J106" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107" s="22">
+      <c r="J106" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="13">
         <v>6</v>
       </c>
       <c r="C107" s="6"/>
@@ -3592,19 +3447,19 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="11"/>
-      <c r="J107" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B108" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="13">
         <v>6</v>
       </c>
       <c r="C108" s="6"/>
@@ -3613,19 +3468,19 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I108" s="1"/>
-      <c r="J108" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="22">
+      <c r="J108" s="16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="13">
         <v>6</v>
       </c>
       <c r="C109" s="6"/>
@@ -3634,19 +3489,19 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I109" s="1"/>
-      <c r="J109" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" s="22">
+      <c r="J109" s="16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="13">
         <v>6</v>
       </c>
       <c r="C110" s="6"/>
@@ -3655,19 +3510,19 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I110" s="1"/>
-      <c r="J110" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B111" s="22">
+      <c r="J110" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="13">
         <v>6</v>
       </c>
       <c r="C111" s="6"/>
@@ -3676,19 +3531,19 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I111" s="1"/>
-      <c r="J111" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B112" s="22">
+      <c r="J111" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B112" s="13">
         <v>6</v>
       </c>
       <c r="C112" s="6"/>
@@ -3697,19 +3552,19 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I112" s="1"/>
-      <c r="J112" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B113" s="22">
+      <c r="J112" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="13">
         <v>6</v>
       </c>
       <c r="C113" s="6"/>
@@ -3718,19 +3573,19 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I113" s="1"/>
-      <c r="J113" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B114" s="22">
+      <c r="J113" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="13">
         <v>6</v>
       </c>
       <c r="C114" s="6"/>
@@ -3739,19 +3594,19 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I114" s="1"/>
-      <c r="J114" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B115" s="22">
+      <c r="J114" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="13">
         <v>6</v>
       </c>
       <c r="C115" s="6"/>
@@ -3760,19 +3615,19 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I115" s="1"/>
-      <c r="J115" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B116" s="22">
+      <c r="J115" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="13">
         <v>6</v>
       </c>
       <c r="C116" s="6"/>
@@ -3781,19 +3636,19 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I116" s="1"/>
-      <c r="J116" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B117" s="22">
+      <c r="J116" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="13">
         <v>6</v>
       </c>
       <c r="C117" s="6"/>
@@ -3802,19 +3657,19 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I117" s="1"/>
-      <c r="J117" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B118" s="22">
+      <c r="J117" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="13">
         <v>6</v>
       </c>
       <c r="C118" s="6"/>
@@ -3823,19 +3678,19 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I118" s="1"/>
-      <c r="J118" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B119" s="22">
+      <c r="J118" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="13">
         <v>6</v>
       </c>
       <c r="C119" s="6"/>
@@ -3844,19 +3699,19 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I119" s="1"/>
-      <c r="J119" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B120" s="22">
+      <c r="J119" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="13">
         <v>6</v>
       </c>
       <c r="C120" s="6"/>
@@ -3865,19 +3720,19 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I120" s="1"/>
-      <c r="J120" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="22">
+      <c r="J120" s="16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="13">
         <v>6</v>
       </c>
       <c r="C121" s="6"/>
@@ -3886,19 +3741,19 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I121" s="1"/>
-      <c r="J121" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B122" s="22">
+      <c r="J121" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122" s="13">
         <v>6</v>
       </c>
       <c r="C122" s="6"/>
@@ -3907,20 +3762,20 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I122" s="1"/>
-      <c r="J122" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B123" s="22">
-        <v>6</v>
+      <c r="J122" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="13">
+        <v>2</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3928,19 +3783,18 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="25" t="s">
-        <v>190</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="16" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B124" s="22">
+      <c r="A124" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" s="13">
         <v>2</v>
       </c>
       <c r="C124" s="6"/>
@@ -3949,18 +3803,18 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J124" s="25" t="s">
-        <v>103</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B125" s="22">
+      <c r="A125" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" s="13">
         <v>2</v>
       </c>
       <c r="C125" s="6"/>
@@ -3969,18 +3823,18 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="25" t="s">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="16" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B126" s="22">
+      <c r="A126" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="13">
         <v>2</v>
       </c>
       <c r="C126" s="6"/>
@@ -3989,18 +3843,18 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="25" t="s">
-        <v>105</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="16" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B127" s="22">
+      <c r="A127" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="14">
         <v>2</v>
       </c>
       <c r="C127" s="6"/>
@@ -4009,19 +3863,19 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="25" t="s">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B128" s="23">
-        <v>2</v>
+      <c r="A128" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B128" s="13">
+        <v>3</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -4029,18 +3883,18 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J128" s="25" t="s">
-        <v>107</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B129" s="22">
+      <c r="A129" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B129" s="13">
         <v>3</v>
       </c>
       <c r="C129" s="6"/>
@@ -4049,18 +3903,18 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="25" t="s">
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="16" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B130" s="22">
+      <c r="A130" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B130" s="13">
         <v>3</v>
       </c>
       <c r="C130" s="6"/>
@@ -4069,18 +3923,18 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J130" s="25" t="s">
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B131" s="22">
+      <c r="A131" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B131" s="14">
         <v>3</v>
       </c>
       <c r="C131" s="6"/>
@@ -4089,18 +3943,18 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J131" s="25" t="s">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B132" s="23">
+      <c r="A132" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" s="14">
         <v>3</v>
       </c>
       <c r="C132" s="6"/>
@@ -4109,19 +3963,19 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J132" s="25" t="s">
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B133" s="23">
-        <v>3</v>
+      <c r="A133" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B133" s="13">
+        <v>4</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -4129,18 +3983,18 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J133" s="25" t="s">
-        <v>112</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B134" s="22">
+      <c r="A134" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="13">
         <v>4</v>
       </c>
       <c r="C134" s="6"/>
@@ -4149,18 +4003,18 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J134" s="25" t="s">
-        <v>114</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="16" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B135" s="22">
+      <c r="A135" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B135" s="13">
         <v>4</v>
       </c>
       <c r="C135" s="6"/>
@@ -4169,18 +4023,18 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J135" s="25" t="s">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B136" s="22">
+      <c r="A136" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" s="13">
         <v>4</v>
       </c>
       <c r="C136" s="6"/>
@@ -4189,18 +4043,18 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J136" s="25" t="s">
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B137" s="22">
+      <c r="A137" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B137" s="14">
         <v>4</v>
       </c>
       <c r="C137" s="6"/>
@@ -4209,18 +4063,18 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J137" s="25" t="s">
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B138" s="23">
+      <c r="A138" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" s="13">
         <v>4</v>
       </c>
       <c r="C138" s="6"/>
@@ -4229,18 +4083,18 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J138" s="25" t="s">
-        <v>118</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="16" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B139" s="22">
+      <c r="A139" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="13">
         <v>4</v>
       </c>
       <c r="C139" s="6"/>
@@ -4249,18 +4103,18 @@
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J139" s="25" t="s">
-        <v>119</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J139" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B140" s="22">
+      <c r="A140" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B140" s="13">
         <v>4</v>
       </c>
       <c r="C140" s="6"/>
@@ -4269,18 +4123,18 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J140" s="25" t="s">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J140" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B141" s="22">
+      <c r="A141" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B141" s="14">
         <v>4</v>
       </c>
       <c r="C141" s="6"/>
@@ -4289,18 +4143,18 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J141" s="25" t="s">
-        <v>121</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J141" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B142" s="23">
+      <c r="A142" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" s="13">
         <v>4</v>
       </c>
       <c r="C142" s="6"/>
@@ -4309,18 +4163,18 @@
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J142" s="25" t="s">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J142" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B143" s="22">
+      <c r="A143" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" s="13">
         <v>4</v>
       </c>
       <c r="C143" s="6"/>
@@ -4329,18 +4183,18 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J143" s="25" t="s">
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B144" s="22">
+      <c r="A144" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B144" s="13">
         <v>4</v>
       </c>
       <c r="C144" s="6"/>
@@ -4349,18 +4203,18 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J144" s="25" t="s">
-        <v>124</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B145" s="22">
+      <c r="A145" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B145" s="14">
         <v>4</v>
       </c>
       <c r="C145" s="6"/>
@@ -4369,18 +4223,18 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J145" s="25" t="s">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B146" s="23">
+      <c r="A146" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B146" s="13">
         <v>4</v>
       </c>
       <c r="C146" s="6"/>
@@ -4389,18 +4243,18 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J146" s="25" t="s">
-        <v>126</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="16" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B147" s="22">
+      <c r="A147" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B147" s="13">
         <v>4</v>
       </c>
       <c r="C147" s="6"/>
@@ -4409,18 +4263,18 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="25" t="s">
-        <v>127</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B148" s="22">
+      <c r="A148" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" s="13">
         <v>4</v>
       </c>
       <c r="C148" s="6"/>
@@ -4429,18 +4283,18 @@
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J148" s="25" t="s">
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="22">
+      <c r="A149" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B149" s="13">
         <v>4</v>
       </c>
       <c r="C149" s="6"/>
@@ -4449,18 +4303,18 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J149" s="25" t="s">
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B150" s="22">
+      <c r="A150" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" s="13">
         <v>4</v>
       </c>
       <c r="C150" s="6"/>
@@ -4469,18 +4323,18 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J150" s="25" t="s">
-        <v>131</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="16" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B151" s="22">
+      <c r="A151" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" s="14">
         <v>4</v>
       </c>
       <c r="C151" s="6"/>
@@ -4489,18 +4343,18 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J151" s="25" t="s">
-        <v>132</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B152" s="23">
+      <c r="A152" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B152" s="13">
         <v>4</v>
       </c>
       <c r="C152" s="6"/>
@@ -4509,18 +4363,18 @@
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J152" s="25" t="s">
-        <v>133</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B153" s="22">
+      <c r="A153" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B153" s="13">
         <v>4</v>
       </c>
       <c r="C153" s="6"/>
@@ -4529,18 +4383,18 @@
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J153" s="25" t="s">
-        <v>134</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B154" s="22">
+      <c r="A154" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" s="13">
         <v>4</v>
       </c>
       <c r="C154" s="6"/>
@@ -4549,18 +4403,18 @@
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J154" s="25" t="s">
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B155" s="22">
+      <c r="A155" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B155" s="13">
         <v>4</v>
       </c>
       <c r="C155" s="6"/>
@@ -4569,18 +4423,18 @@
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J155" s="25" t="s">
-        <v>136</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B156" s="22">
+      <c r="A156" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" s="14">
         <v>4</v>
       </c>
       <c r="C156" s="6"/>
@@ -4589,18 +4443,18 @@
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J156" s="25" t="s">
-        <v>137</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="16" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B157" s="23">
+      <c r="A157" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B157" s="14">
         <v>4</v>
       </c>
       <c r="C157" s="6"/>
@@ -4609,18 +4463,18 @@
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J157" s="25" t="s">
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="16" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B158" s="23">
+      <c r="A158" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" s="13">
         <v>4</v>
       </c>
       <c r="C158" s="6"/>
@@ -4629,18 +4483,18 @@
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J158" s="25" t="s">
-        <v>139</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B159" s="22">
+      <c r="A159" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="13">
         <v>4</v>
       </c>
       <c r="C159" s="6"/>
@@ -4649,18 +4503,18 @@
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J159" s="25" t="s">
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B160" s="22">
+      <c r="A160" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" s="13">
         <v>4</v>
       </c>
       <c r="C160" s="6"/>
@@ -4669,18 +4523,18 @@
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J160" s="25" t="s">
-        <v>141</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B161" s="22">
+      <c r="A161" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B161" s="13">
         <v>4</v>
       </c>
       <c r="C161" s="6"/>
@@ -4689,18 +4543,18 @@
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J161" s="25" t="s">
-        <v>142</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B162" s="22">
+      <c r="A162" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" s="14">
         <v>4</v>
       </c>
       <c r="C162" s="6"/>
@@ -4709,18 +4563,18 @@
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J162" s="24" t="s">
-        <v>143</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="15" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B163" s="23">
+      <c r="A163" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B163" s="13">
         <v>4</v>
       </c>
       <c r="C163" s="6"/>
@@ -4729,18 +4583,18 @@
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J163" s="24" t="s">
-        <v>144</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B164" s="22">
+      <c r="A164" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B164" s="13">
         <v>4</v>
       </c>
       <c r="C164" s="6"/>
@@ -4749,18 +4603,18 @@
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J164" s="24" t="s">
-        <v>145</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B165" s="22">
+      <c r="A165" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B165" s="13">
         <v>4</v>
       </c>
       <c r="C165" s="6"/>
@@ -4769,18 +4623,18 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J165" s="24" t="s">
-        <v>146</v>
+        <f t="shared" ref="H165:H177" si="2">SUM(C165:G165)</f>
+        <v>0</v>
+      </c>
+      <c r="J165" s="15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B166" s="22">
+      <c r="A166" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B166" s="13">
         <v>4</v>
       </c>
       <c r="C166" s="6"/>
@@ -4789,19 +4643,19 @@
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="10">
-        <f t="shared" ref="H166:H204" si="4">SUM(C166:G166)</f>
-        <v>0</v>
-      </c>
-      <c r="J166" s="24" t="s">
-        <v>147</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J166" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B167" s="22">
-        <v>4</v>
+      <c r="A167" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B167" s="14">
+        <v>5</v>
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -4809,18 +4663,18 @@
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J167" s="24" t="s">
-        <v>148</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J167" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B168" s="23">
+      <c r="A168" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B168" s="13">
         <v>5</v>
       </c>
       <c r="C168" s="6"/>
@@ -4829,18 +4683,18 @@
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J168" s="24" t="s">
-        <v>149</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B169" s="22">
+      <c r="A169" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B169" s="13">
         <v>5</v>
       </c>
       <c r="C169" s="6"/>
@@ -4849,18 +4703,18 @@
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J169" s="24" t="s">
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J169" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B170" s="22">
+      <c r="A170" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B170" s="13">
         <v>5</v>
       </c>
       <c r="C170" s="6"/>
@@ -4869,18 +4723,18 @@
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J170" s="24" t="s">
-        <v>151</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J170" s="15" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B171" s="22">
+      <c r="A171" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B171" s="13">
         <v>5</v>
       </c>
       <c r="C171" s="6"/>
@@ -4889,18 +4743,18 @@
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J171" s="24" t="s">
-        <v>152</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J171" s="15" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B172" s="22">
+      <c r="A172" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B172" s="14">
         <v>5</v>
       </c>
       <c r="C172" s="6"/>
@@ -4909,18 +4763,18 @@
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J172" s="24" t="s">
-        <v>153</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J172" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B173" s="23">
+      <c r="A173" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="13">
         <v>5</v>
       </c>
       <c r="C173" s="6"/>
@@ -4929,18 +4783,18 @@
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J173" s="24" t="s">
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J173" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B174" s="22">
+      <c r="A174" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B174" s="13">
         <v>5</v>
       </c>
       <c r="C174" s="6"/>
@@ -4949,18 +4803,18 @@
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J174" s="25" t="s">
-        <v>156</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J174" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B175" s="22">
+      <c r="A175" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" s="13">
         <v>5</v>
       </c>
       <c r="C175" s="6"/>
@@ -4969,18 +4823,18 @@
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J175" s="25" t="s">
-        <v>157</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J175" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B176" s="22">
+      <c r="A176" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B176" s="13">
         <v>5</v>
       </c>
       <c r="C176" s="6"/>
@@ -4989,18 +4843,18 @@
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
       <c r="H176" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J176" s="25" t="s">
-        <v>158</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J176" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B177" s="22">
+      <c r="A177" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B177" s="14">
         <v>5</v>
       </c>
       <c r="C177" s="6"/>
@@ -5009,32 +4863,23 @@
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
       <c r="H177" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J177" s="25" t="s">
-        <v>159</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J177" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B178" s="23">
-        <v>5</v>
-      </c>
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
-      <c r="H178" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J178" s="25" t="s">
-        <v>160</v>
-      </c>
+      <c r="H178" s="10"/>
+      <c r="J178" s="8"/>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
@@ -5422,14 +5267,6 @@
       <c r="J213" s="8"/>
     </row>
     <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-      <c r="E214" s="6"/>
-      <c r="F214" s="6"/>
-      <c r="G214" s="6"/>
-      <c r="H214" s="10"/>
       <c r="J214" s="8"/>
     </row>
     <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5440,9 +5277,6 @@
     </row>
     <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J217" s="8"/>
-    </row>
-    <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J218" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5457,116 +5291,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J151:J153 J155:J158">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J154">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J159">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J151:J159">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J160">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J160">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J161">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J161">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J178">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I99 I101:I104">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I97:I105">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
